--- a/data_year/zb/固定资产投资和房地产/房地产开发企业个数.xlsx
+++ b/data_year/zb/固定资产投资和房地产/房地产开发企业个数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23277</v>
+        <v>79489</v>
       </c>
       <c r="C2" t="n">
-        <v>6641</v>
+        <v>3685</v>
       </c>
       <c r="D2" t="n">
-        <v>1127</v>
+        <v>2052</v>
       </c>
       <c r="E2" t="n">
-        <v>27303</v>
+        <v>85218</v>
       </c>
       <c r="F2" t="n">
-        <v>2899</v>
+        <v>3677</v>
       </c>
       <c r="G2" t="n">
-        <v>3492</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25509</v>
+        <v>83011</v>
       </c>
       <c r="C3" t="n">
-        <v>5862</v>
+        <v>3427</v>
       </c>
       <c r="D3" t="n">
-        <v>1084</v>
+        <v>1843</v>
       </c>
       <c r="E3" t="n">
-        <v>29552</v>
+        <v>88419</v>
       </c>
       <c r="F3" t="n">
-        <v>2959</v>
+        <v>3565</v>
       </c>
       <c r="G3" t="n">
-        <v>2991</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28657</v>
+        <v>84695</v>
       </c>
       <c r="C4" t="n">
-        <v>5015</v>
+        <v>3354</v>
       </c>
       <c r="D4" t="n">
-        <v>1077</v>
+        <v>1713</v>
       </c>
       <c r="E4" t="n">
-        <v>32618</v>
+        <v>89859</v>
       </c>
       <c r="F4" t="n">
-        <v>2884</v>
+        <v>3451</v>
       </c>
       <c r="G4" t="n">
-        <v>2488</v>
+        <v>904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33107</v>
+        <v>86379</v>
       </c>
       <c r="C5" t="n">
-        <v>4558</v>
+        <v>1739</v>
       </c>
       <c r="D5" t="n">
-        <v>1176</v>
+        <v>1674</v>
       </c>
       <c r="E5" t="n">
-        <v>37123</v>
+        <v>91444</v>
       </c>
       <c r="F5" t="n">
-        <v>2840</v>
+        <v>3391</v>
       </c>
       <c r="G5" t="n">
-        <v>2205</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53495</v>
+        <v>89218</v>
       </c>
       <c r="C6" t="n">
-        <v>4775</v>
+        <v>1476</v>
       </c>
       <c r="D6" t="n">
-        <v>2108</v>
+        <v>1565</v>
       </c>
       <c r="E6" t="n">
-        <v>59242</v>
+        <v>94197</v>
       </c>
       <c r="F6" t="n">
-        <v>3639</v>
+        <v>3414</v>
       </c>
       <c r="G6" t="n">
-        <v>2390</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50957</v>
+        <v>88773</v>
       </c>
       <c r="C7" t="n">
-        <v>4145</v>
+        <v>1329</v>
       </c>
       <c r="D7" t="n">
-        <v>1890</v>
+        <v>1418</v>
       </c>
       <c r="E7" t="n">
-        <v>56290</v>
+        <v>93426</v>
       </c>
       <c r="F7" t="n">
-        <v>3443</v>
+        <v>3235</v>
       </c>
       <c r="G7" t="n">
-        <v>1796</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53268</v>
+        <v>90408</v>
       </c>
       <c r="C8" t="n">
-        <v>3797</v>
+        <v>1093</v>
       </c>
       <c r="D8" t="n">
-        <v>1923</v>
+        <v>1308</v>
       </c>
       <c r="E8" t="n">
-        <v>58710</v>
+        <v>94948</v>
       </c>
       <c r="F8" t="n">
-        <v>3519</v>
+        <v>3232</v>
       </c>
       <c r="G8" t="n">
-        <v>1586</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56965</v>
+        <v>91608</v>
       </c>
       <c r="C9" t="n">
-        <v>3617</v>
+        <v>943</v>
       </c>
       <c r="D9" t="n">
-        <v>2029</v>
+        <v>1223</v>
       </c>
       <c r="E9" t="n">
-        <v>62518</v>
+        <v>95897</v>
       </c>
       <c r="F9" t="n">
-        <v>3524</v>
+        <v>3066</v>
       </c>
       <c r="G9" t="n">
-        <v>1430</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81282</v>
+        <v>94063</v>
       </c>
       <c r="C10" t="n">
-        <v>3941</v>
+        <v>767</v>
       </c>
       <c r="D10" t="n">
-        <v>2364</v>
+        <v>1155</v>
       </c>
       <c r="E10" t="n">
-        <v>87562</v>
+        <v>97937</v>
       </c>
       <c r="F10" t="n">
-        <v>3916</v>
+        <v>2719</v>
       </c>
       <c r="G10" t="n">
-        <v>1520</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74674</v>
+        <v>95691</v>
       </c>
       <c r="C11" t="n">
-        <v>3835</v>
+        <v>671</v>
       </c>
       <c r="D11" t="n">
-        <v>2100</v>
+        <v>1189</v>
       </c>
       <c r="E11" t="n">
-        <v>80407</v>
+        <v>99544</v>
       </c>
       <c r="F11" t="n">
-        <v>3633</v>
+        <v>2664</v>
       </c>
       <c r="G11" t="n">
-        <v>1361</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79489</v>
+        <v>99150</v>
       </c>
       <c r="C12" t="n">
-        <v>3685</v>
+        <v>1133</v>
       </c>
       <c r="D12" t="n">
-        <v>2052</v>
+        <v>1353</v>
       </c>
       <c r="E12" t="n">
-        <v>85218</v>
+        <v>103262</v>
       </c>
       <c r="F12" t="n">
-        <v>3677</v>
+        <v>2759</v>
       </c>
       <c r="G12" t="n">
-        <v>1220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83011</v>
+        <v>101374</v>
       </c>
       <c r="C13" t="n">
-        <v>3427</v>
+        <v>1209</v>
       </c>
       <c r="D13" t="n">
-        <v>1843</v>
+        <v>1357</v>
       </c>
       <c r="E13" t="n">
-        <v>88419</v>
+        <v>105434</v>
       </c>
       <c r="F13" t="n">
-        <v>3565</v>
+        <v>2703</v>
       </c>
       <c r="G13" t="n">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>84695</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3354</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1713</v>
-      </c>
-      <c r="E14" t="n">
-        <v>89859</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3451</v>
-      </c>
-      <c r="G14" t="n">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>86379</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1739</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1674</v>
-      </c>
-      <c r="E15" t="n">
-        <v>91444</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3391</v>
-      </c>
-      <c r="G15" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>89218</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1476</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1565</v>
-      </c>
-      <c r="E16" t="n">
-        <v>94197</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3414</v>
-      </c>
-      <c r="G16" t="n">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>88773</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1329</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1418</v>
-      </c>
-      <c r="E17" t="n">
-        <v>93426</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3235</v>
-      </c>
-      <c r="G17" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>90408</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1093</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1308</v>
-      </c>
-      <c r="E18" t="n">
-        <v>94948</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3232</v>
-      </c>
-      <c r="G18" t="n">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>91608</v>
-      </c>
-      <c r="C19" t="n">
-        <v>943</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1223</v>
-      </c>
-      <c r="E19" t="n">
-        <v>95897</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3066</v>
-      </c>
-      <c r="G19" t="n">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>94063</v>
-      </c>
-      <c r="C20" t="n">
-        <v>767</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1155</v>
-      </c>
-      <c r="E20" t="n">
-        <v>97937</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2719</v>
-      </c>
-      <c r="G20" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>95691</v>
-      </c>
-      <c r="C21" t="n">
-        <v>671</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1189</v>
-      </c>
-      <c r="E21" t="n">
-        <v>99544</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2664</v>
-      </c>
-      <c r="G21" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>99150</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1133</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1353</v>
-      </c>
-      <c r="E22" t="n">
-        <v>103262</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2759</v>
-      </c>
-      <c r="G22" t="n">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
